--- a/3.2.1/3.2.1.xlsx
+++ b/3.2.1/3.2.1.xlsx
@@ -5,7 +5,8 @@
   <sheets>
     <sheet name="RC-цепь" r:id="rId1" sheetId="1" state="visible"/>
     <sheet name="RL-цепь" r:id="rId2" sheetId="2" state="visible"/>
-    <sheet name="RLC-цепь" r:id="rId3" sheetId="3" state="visible"/>
+    <sheet name="RLC-цепь(R=0)" r:id="rId3" sheetId="3" state="visible"/>
+    <sheet name="RLC-цепь(R=100)" r:id="rId4" sheetId="4" state="visible"/>
   </sheets>
   <definedNames/>
 </workbook>
@@ -844,7 +845,7 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
@@ -881,6 +882,15 @@
       <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="n"/>
+      <c r="K1" t="n"/>
+      <c r="L1" t="n"/>
+      <c r="M1" t="n"/>
+      <c r="N1" t="n"/>
+      <c r="O1" t="n"/>
+      <c r="P1" t="n"/>
+      <c r="Q1" t="n"/>
+      <c r="R1" t="n"/>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="3" t="n">
@@ -911,6 +921,15 @@
       <c r="I2" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J2" t="n"/>
+      <c r="K2" t="n"/>
+      <c r="L2" t="n"/>
+      <c r="M2" t="n"/>
+      <c r="N2" t="n"/>
+      <c r="O2" t="n"/>
+      <c r="P2" t="n"/>
+      <c r="Q2" t="n"/>
+      <c r="R2" t="n"/>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="3" t="s"/>
@@ -932,7 +951,7 @@
       <c r="G3" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F3/D3</f>
         <v>-0.23076923076923078</v>
       </c>
@@ -940,6 +959,14 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E3/D3)^2+(G3/F3)^2)*H3</f>
         <v>-0.03947237888794773</v>
       </c>
+      <c r="K3" t="n"/>
+      <c r="L3" t="n"/>
+      <c r="M3" t="n"/>
+      <c r="N3" t="n"/>
+      <c r="O3" t="n"/>
+      <c r="P3" t="n"/>
+      <c r="Q3" t="n"/>
+      <c r="R3" t="n"/>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="3" t="s"/>
@@ -969,6 +996,14 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E4/D4)^2+(G4/F4)^2)*H4</f>
         <v>-0.037513880535338634</v>
       </c>
+      <c r="K4" t="n"/>
+      <c r="L4" t="n"/>
+      <c r="M4" t="n"/>
+      <c r="N4" t="n"/>
+      <c r="O4" t="n"/>
+      <c r="P4" t="n"/>
+      <c r="Q4" t="n"/>
+      <c r="R4" t="n"/>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="3" t="s"/>
@@ -998,6 +1033,14 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E5/D5)^2+(G5/F5)^2)*H5</f>
         <v>-0.03862860861544231</v>
       </c>
+      <c r="K5" t="n"/>
+      <c r="L5" t="n"/>
+      <c r="M5" t="n"/>
+      <c r="N5" t="n"/>
+      <c r="O5" t="n"/>
+      <c r="P5" t="n"/>
+      <c r="Q5" t="n"/>
+      <c r="R5" t="n"/>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="3" t="s"/>
@@ -1027,6 +1070,14 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E6/D6)^2+(G6/F6)^2)*H6</f>
         <v>-0.03857516216096242</v>
       </c>
+      <c r="K6" t="n"/>
+      <c r="L6" t="n"/>
+      <c r="M6" t="n"/>
+      <c r="N6" t="n"/>
+      <c r="O6" t="n"/>
+      <c r="P6" t="n"/>
+      <c r="Q6" t="n"/>
+      <c r="R6" t="n"/>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="3" t="s"/>
@@ -1056,9 +1107,17 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E7/D7)^2+(G7/F7)^2)*H7</f>
         <v>-0.0387167228648</v>
       </c>
+      <c r="K7" t="n"/>
+      <c r="L7" t="n"/>
+      <c r="M7" t="n"/>
+      <c r="N7" t="n"/>
+      <c r="O7" t="n"/>
+      <c r="P7" t="n"/>
+      <c r="Q7" t="n"/>
+      <c r="R7" t="n"/>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n"/>
+      <c r="A8" s="3" t="s"/>
       <c r="B8" s="4" t="n">
         <v>1100</v>
       </c>
@@ -1085,6 +1144,14 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E8/D8)^2+(G8/F8)^2)*H8</f>
         <v>0.022466662238194164</v>
       </c>
+      <c r="K8" t="n"/>
+      <c r="L8" t="n"/>
+      <c r="M8" t="n"/>
+      <c r="N8" t="n"/>
+      <c r="O8" t="n"/>
+      <c r="P8" t="n"/>
+      <c r="Q8" t="n"/>
+      <c r="R8" t="n"/>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="3" t="s"/>
@@ -1114,6 +1181,14 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E9/D9)^2+(G9/F9)^2)*H9</f>
         <v>0.021196380984504826</v>
       </c>
+      <c r="K9" t="n"/>
+      <c r="L9" t="n"/>
+      <c r="M9" t="n"/>
+      <c r="N9" t="n"/>
+      <c r="O9" t="n"/>
+      <c r="P9" t="n"/>
+      <c r="Q9" t="n"/>
+      <c r="R9" t="n"/>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="3" t="s"/>
@@ -1143,6 +1218,14 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E10/D10)^2+(G10/F10)^2)*H10</f>
         <v>0.02384999252193222</v>
       </c>
+      <c r="K10" t="n"/>
+      <c r="L10" t="n"/>
+      <c r="M10" t="n"/>
+      <c r="N10" t="n"/>
+      <c r="O10" t="n"/>
+      <c r="P10" t="n"/>
+      <c r="Q10" t="n"/>
+      <c r="R10" t="n"/>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="3" t="s"/>
@@ -1172,6 +1255,14 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E11/D11)^2+(G11/F11)^2)*H11</f>
         <v>0.020063897926375127</v>
       </c>
+      <c r="K11" t="n"/>
+      <c r="L11" t="n"/>
+      <c r="M11" t="n"/>
+      <c r="N11" t="n"/>
+      <c r="O11" t="n"/>
+      <c r="P11" t="n"/>
+      <c r="Q11" t="n"/>
+      <c r="R11" t="n"/>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="3" t="s"/>
@@ -1201,326 +1292,135 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E12/D12)^2+(G12/F12)^2)*H12</f>
         <v>0.02099546288619414</v>
       </c>
+      <c r="K12" t="n"/>
+      <c r="L12" t="n"/>
+      <c r="M12" t="n"/>
+      <c r="N12" t="n"/>
+      <c r="O12" t="n"/>
+      <c r="P12" t="n"/>
+      <c r="Q12" t="n"/>
+      <c r="R12" t="n"/>
     </row>
     <row outlineLevel="0" r="13">
-      <c r="A13" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="B13" s="4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F13/D13</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="4" t="n"/>
+      <c r="C13" s="4" t="n"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="1" t="n"/>
+      <c r="I13" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="3" t="s"/>
-      <c r="B14" s="4" t="n">
-        <v>980</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F14/D14</f>
-        <v>-0.07692307692307693</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E14/D14)^2+(G14/F14)^2)*H14</f>
-        <v>-0.03857516216096242</v>
-      </c>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="4" t="n"/>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
+      <c r="G14" s="2" t="n"/>
+      <c r="H14" s="1" t="n"/>
+      <c r="I14" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="3" t="s"/>
-      <c r="B15" s="4" t="n">
-        <v>970</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F15/D15</f>
-        <v>-0.11538461538461539</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E15/D15)^2+(G15/F15)^2)*H15</f>
-        <v>-0.0387167228648</v>
-      </c>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="4" t="n"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="1" t="n"/>
+      <c r="I15" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="3" t="s"/>
-      <c r="B16" s="4" t="n">
-        <v>950</v>
-      </c>
-      <c r="C16" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F16/D16</f>
-        <v>-0.15384615384615385</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E16/D16)^2+(G16/F16)^2)*H16</f>
-        <v>-0.03891404271587546</v>
-      </c>
+      <c r="B16" s="4" t="n"/>
+      <c r="C16" s="4" t="n"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="1" t="n"/>
+      <c r="I16" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="3" t="s"/>
-      <c r="B17" s="4" t="n">
-        <v>920</v>
-      </c>
-      <c r="C17" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>-3</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F17/D17</f>
-        <v>-0.21428571428571427</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E17/D17)^2+(G17/F17)^2)*H17</f>
-        <v>-0.03652505373284784</v>
-      </c>
+      <c r="B17" s="4" t="n"/>
+      <c r="C17" s="4" t="n"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="1" t="n"/>
+      <c r="I17" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="3" t="s"/>
-      <c r="B18" s="4" t="n">
-        <v>900</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F18/D18</f>
-        <v>-0.25</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E18/D18)^2+(G18/F18)^2)*H18</f>
-        <v>-0.03681344308587197</v>
-      </c>
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="4" t="n"/>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="1" t="n"/>
+      <c r="I18" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="3" t="s"/>
-      <c r="B19" s="4" t="n">
-        <v>1020</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F19/D19</f>
-        <v>0.06</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E19/D19)^2+(G19/F19)^2)*H19</f>
-        <v>0.02003596765818911</v>
-      </c>
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="4" t="n"/>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="1" t="n"/>
+      <c r="I19" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="3" t="s"/>
-      <c r="B20" s="4" t="n">
-        <v>1040</v>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F20/D20</f>
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E20/D20)^2+(G20/F20)^2)*H20</f>
-        <v>0.02094605644446815</v>
-      </c>
+      <c r="B20" s="4" t="n"/>
+      <c r="C20" s="4" t="n"/>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="1" t="n"/>
+      <c r="I20" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="3" t="s"/>
-      <c r="B21" s="4" t="n">
-        <v>1060</v>
-      </c>
-      <c r="C21" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F21/D21</f>
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E21/D21)^2+(G21/F21)^2)*H21</f>
-        <v>0.021053702839643928</v>
-      </c>
+      <c r="B21" s="4" t="n"/>
+      <c r="C21" s="4" t="n"/>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
+      <c r="H21" s="1" t="n"/>
+      <c r="I21" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="3" t="s"/>
-      <c r="B22" s="4" t="n">
-        <v>1100</v>
-      </c>
-      <c r="C22" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F22/D22</f>
-        <v>0.2391304347826087</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E22/D22)^2+(G22/F22)^2)*H22</f>
-        <v>0.02235204837501979</v>
-      </c>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="4" t="n"/>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
+      <c r="H22" s="1" t="n"/>
+      <c r="I22" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="3" t="s"/>
-      <c r="B23" s="4" t="n">
-        <v>1140</v>
-      </c>
-      <c r="C23" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F23/D23</f>
-        <v>0.29545454545454547</v>
-      </c>
-      <c r="I23" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E23/D23)^2+(G23/F23)^2)*H23</f>
-        <v>0.023698491212715833</v>
-      </c>
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="4" t="n"/>
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
+      <c r="G23" s="2" t="n"/>
+      <c r="H23" s="1" t="n"/>
+      <c r="I23" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1530,4 +1430,373 @@
   <pageMargins bottom="0.590555548667908" footer="0.5" header="0.5" left="0.590555548667908" right="0.590555548667908" top="0.590555548667908"/>
   <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait" paperHeight="297.1798mm" paperSize="9" paperWidth="210.0438mm" scale="100"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <sheetPr>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
+  </sheetPr>
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView showZeros="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="10.7884703773945" defaultRowHeight="15" zeroHeight="false"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F2/D2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="n"/>
+      <c r="B3" s="4" t="n">
+        <v>980</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F3/D3</f>
+        <v>-0.07692307692307693</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E3/D3)^2+(G3/F3)^2)*H3</f>
+        <v>-0.03857516216096242</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="n"/>
+      <c r="B4" s="4" t="n">
+        <v>970</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F4/D4</f>
+        <v>-0.11538461538461539</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E4/D4)^2+(G4/F4)^2)*H4</f>
+        <v>-0.0387167228648</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="n"/>
+      <c r="B5" s="4" t="n">
+        <v>950</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F5/D5</f>
+        <v>-0.15384615384615385</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E5/D5)^2+(G5/F5)^2)*H5</f>
+        <v>-0.03891404271587546</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="n"/>
+      <c r="B6" s="4" t="n">
+        <v>920</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F6/D6</f>
+        <v>-0.21428571428571427</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E6/D6)^2+(G6/F6)^2)*H6</f>
+        <v>-0.03652505373284784</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0" t="n"/>
+      <c r="B7" s="4" t="n">
+        <v>900</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F7/D7</f>
+        <v>-0.25</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E7/D7)^2+(G7/F7)^2)*H7</f>
+        <v>-0.03681344308587197</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0" t="n"/>
+      <c r="B8" s="4" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F8/D8</f>
+        <v>0.06</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E8/D8)^2+(G8/F8)^2)*H8</f>
+        <v>0.02003596765818911</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0" t="n"/>
+      <c r="B9" s="4" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F9/D9</f>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E9/D9)^2+(G9/F9)^2)*H9</f>
+        <v>0.02094605644446815</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0" t="n"/>
+      <c r="B10" s="4" t="n">
+        <v>1060</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F10/D10</f>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E10/D10)^2+(G10/F10)^2)*H10</f>
+        <v>0.021053702839643928</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0" t="n"/>
+      <c r="B11" s="4" t="n">
+        <v>1100</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F11/D11</f>
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E11/D11)^2+(G11/F11)^2)*H11</f>
+        <v>0.02235204837501979</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="n"/>
+      <c r="B12" s="4" t="n">
+        <v>1140</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F12/D12</f>
+        <v>0.29545454545454547</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">SQRT((E12/D12)^2+(G12/F12)^2)*H12</f>
+        <v>0.023698491212715833</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A12"/>
+  </mergeCells>
+  <pageMargins bottom="0.590555548667908" footer="0.5" header="0.5" left="0.590555548667908" right="0.590555548667908" top="0.590555548667908"/>
+  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait" paperHeight="297.1798mm" paperSize="9" paperWidth="210.0438mm" scale="100"/>
+</worksheet>
 </file>